--- a/TippspielWM2014/_doc/backlog/backlog.xlsx
+++ b/TippspielWM2014/_doc/backlog/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Sicherheitsmechanismus für verspätete Tippabgabe</t>
+  </si>
+  <si>
+    <t>Form Validation</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -588,12 +593,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -631,8 +630,14 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +649,7 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -655,9 +661,120 @@
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF5AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1FFB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF5AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1FFB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF5AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1FFB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF5AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1FFB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF5AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1FFB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1007,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1132,7 @@
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="73.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="29"/>
+    <col min="7" max="7" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
@@ -1025,7 +1142,7 @@
       <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>41567</v>
       </c>
     </row>
@@ -1038,18 +1155,18 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
@@ -1070,53 +1187,53 @@
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36">
         <f>SUBTOTAL(9,D6:D7)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <f>SUBTOTAL(9,E6:E7)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>0.5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="37">
         <v>0.5</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>41547</v>
       </c>
     </row>
@@ -1124,22 +1241,22 @@
       <c r="A7" s="9">
         <v>1.2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>0.5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="37">
         <v>0.5</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>41547</v>
       </c>
     </row>
@@ -1147,43 +1264,43 @@
       <c r="A8" s="9">
         <v>1.3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <v>0.5</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="38">
         <f>SUBTOTAL(9,D10:D10)</f>
         <v>1.5</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <f>SUBTOTAL(9,E10:E10)</f>
         <v>1.5</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>41555</v>
       </c>
     </row>
@@ -1191,68 +1308,68 @@
       <c r="A10" s="9">
         <v>2.1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="37">
         <v>1.5</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>1.5</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>41555</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="38">
         <f>SUBTOTAL(9,D12:D13)</f>
         <v>6.5</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="38">
         <f>SUBTOTAL(9,E12:E13)</f>
         <v>4</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A12" s="10">
         <v>3.1</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <v>1.5</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <v>41555</v>
       </c>
     </row>
@@ -1260,66 +1377,66 @@
       <c r="A13" s="10">
         <v>3.2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>5</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="37">
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A14" s="21">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="40">
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="38">
         <f>SUBTOTAL(9,D15:D16)</f>
         <v>3</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <f>SUBTOTAL(9,E15:E16)</f>
         <v>0.5</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A15" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>0.5</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <v>0.5</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>41555</v>
       </c>
     </row>
@@ -1327,64 +1444,64 @@
       <c r="A16" s="10">
         <v>4.2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>2.5</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="40">
+      <c r="C17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="38">
         <f>SUBTOTAL(9,D18:D22)</f>
         <v>10</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <f>SUBTOTAL(9,E18:E22)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A18" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>0.5</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="37">
         <v>0.5</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>41559</v>
       </c>
     </row>
@@ -1392,22 +1509,22 @@
       <c r="A19" s="9">
         <v>5.2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>2.5</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="37">
         <v>3</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <v>41559</v>
       </c>
     </row>
@@ -1415,22 +1532,22 @@
       <c r="A20" s="9">
         <v>5.3</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="37">
         <v>2.5</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="37">
         <v>3.5</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <v>41562</v>
       </c>
     </row>
@@ -1438,681 +1555,776 @@
       <c r="A21" s="9">
         <v>5.4</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="37">
         <v>1.5</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A22" s="9">
         <v>5.5</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>3</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="40">
-        <f>SUBTOTAL(9,D24:D26)</f>
-        <v>5</v>
-      </c>
-      <c r="E23" s="40">
-        <f>SUBTOTAL(9,E24:E26)</f>
+      <c r="C23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="38">
+        <f>SUBTOTAL(9,D24:D27)</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="38">
+        <f>SUBTOTAL(9,E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="28"/>
+      <c r="F23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A24" s="9">
         <v>6.1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="37">
         <v>1.5</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A25" s="9">
         <v>6.2</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="37">
         <v>3</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A26" s="9">
         <v>6.3</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <v>0.5</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A27" s="21">
-        <v>7</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A27" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A28" s="19">
+        <v>7</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="40">
-        <f>SUBTOTAL(9,D28:D30)</f>
-        <v>5</v>
-      </c>
-      <c r="E27" s="40">
-        <f>SUBTOTAL(9,E28:E30)</f>
+      <c r="C28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="38">
+        <f>SUBTOTAL(9,D29:D32)</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="38">
+        <f>SUBTOTAL(9,E29:E32)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A28" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="27"/>
+      <c r="F28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A29" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>44</v>
+        <v>7.1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="39"/>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37"/>
       <c r="F29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A30" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A31" s="9">
         <v>7.3</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="39">
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="37">
         <v>3.5</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A31" s="17">
+      <c r="E31" s="37"/>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A32" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="40">
-        <f>SUBTOTAL(9,D32:D35)</f>
-        <v>12.5</v>
-      </c>
-      <c r="E31" s="40">
-        <f>SUBTOTAL(9,E32:E35)</f>
+      <c r="C33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="38">
+        <f>SUBTOTAL(9,D34:D38)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E33" s="38">
+        <f>SUBTOTAL(9,E34:E38)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A32" s="9">
-        <v>8.1</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="39">
-        <v>1</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A33" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="27"/>
+      <c r="F33" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A34" s="9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>42</v>
+        <v>8.1</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="39">
-        <v>8</v>
-      </c>
-      <c r="E34" s="39"/>
+      <c r="D34" s="37">
+        <v>1</v>
+      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A35" s="9">
-        <v>8.4</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>63</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="39">
-        <v>1</v>
-      </c>
-      <c r="E35" s="39"/>
+      <c r="D35" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E35" s="37"/>
       <c r="F35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A36" s="17">
-        <v>9</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="40">
-        <f>SUBTOTAL(9,D37:D42)</f>
-        <v>16</v>
-      </c>
-      <c r="E36" s="40">
-        <f>SUBTOTAL(9,E37:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="28"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A36" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="37">
+        <v>8</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A37" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>55</v>
+        <v>8.4</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="39">
-        <v>3</v>
-      </c>
-      <c r="E37" s="39"/>
+      <c r="D37" s="37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A38" s="9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>56</v>
+        <v>8.5</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="39">
-        <v>6</v>
-      </c>
-      <c r="E38" s="39"/>
+      <c r="D38" s="37">
+        <v>1</v>
+      </c>
+      <c r="E38" s="37"/>
       <c r="F38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A39" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="27"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A39" s="15">
+        <v>9</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="38">
+        <f>SUBTOTAL(9,D40:D46)</f>
+        <v>17</v>
+      </c>
+      <c r="E39" s="38">
+        <f>SUBTOTAL(9,E40:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A40" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>58</v>
+        <v>9.1</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="39">
-        <v>2</v>
-      </c>
-      <c r="E40" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="D40" s="37">
+        <v>3</v>
+      </c>
+      <c r="E40" s="37"/>
       <c r="F40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A41" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>59</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="39">
-        <v>2</v>
-      </c>
-      <c r="E41" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="37">
+        <v>6</v>
+      </c>
+      <c r="E41" s="37"/>
       <c r="F41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A42" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>60</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="37">
+        <v>1</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A43" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D43" s="37">
         <v>2</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A43" s="17">
-        <v>10</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="40">
-        <f>SUBTOTAL(9,D44:D47)</f>
-        <v>11.5</v>
-      </c>
-      <c r="E43" s="40">
-        <f>SUBTOTAL(9,E44:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="28"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A44" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>51</v>
+        <v>9.5</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="E44" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="D44" s="37">
+        <v>2</v>
+      </c>
+      <c r="E44" s="37"/>
       <c r="F44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A45" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>53</v>
+        <v>9.6</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="39">
-        <v>3</v>
-      </c>
-      <c r="E45" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="37">
+        <v>2</v>
+      </c>
+      <c r="E45" s="37"/>
       <c r="F45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="27"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A46" s="9">
-        <v>10.3</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>52</v>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="37">
+        <v>1</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A47" s="15">
+        <v>10</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="39">
-        <v>5</v>
-      </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A47" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="39">
-        <v>2</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A48" s="17">
-        <v>11</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="40">
-        <f>SUBTOTAL(9,D49:D50)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E48" s="40">
-        <f>SUBTOTAL(9,E49:E50)</f>
+      <c r="D47" s="38">
+        <f>SUBTOTAL(9,D48:D51)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E47" s="38">
+        <f>SUBTOTAL(9,E48:E51)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="28"/>
+      <c r="F47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A48" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A49" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>61</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="E49" s="39"/>
+      <c r="D49" s="37">
+        <v>3</v>
+      </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A50" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>62</v>
+        <v>10.3</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="37">
+        <v>5</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A51" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="37">
         <v>2</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A51" s="17">
+      <c r="E51" s="37"/>
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A52" s="15">
+        <v>11</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="38">
+        <f>SUBTOTAL(9,D53:D55)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E52" s="38">
+        <f>SUBTOTAL(9,E53:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A53" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A54" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="37">
+        <v>2</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A55" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="37">
+        <v>1</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A56" s="15">
         <v>12</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="40">
-        <f>SUBTOTAL(9,D52:D52)</f>
+      <c r="D56" s="38">
+        <f>SUBTOTAL(9,D57:D57)</f>
         <v>1.5</v>
       </c>
-      <c r="E51" s="40">
-        <f>SUBTOTAL(9,E52:E52)</f>
+      <c r="E56" s="38">
+        <f>SUBTOTAL(9,E57:E57)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A52" s="9">
+      <c r="F56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A57" s="9">
         <v>12.1</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D57" s="37">
         <v>1.5</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" collapsed="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31" t="s">
+      <c r="E57" s="37"/>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" collapsed="1">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="41">
-        <f>SUM(D51,D48,D36,D43,D27,D23,D17,D14,D11,D9,D5)</f>
-        <v>64.5</v>
-      </c>
-      <c r="E53" s="41">
-        <f>SUM(E51,E48,E36,E43,E27,E23,E17,E14,E11,E9,E5)</f>
+      <c r="C58" s="30"/>
+      <c r="D58" s="39">
+        <f>SUM(D56,D52,D39,D47,D28,D23,D17,D14,D11,D9,D5)</f>
+        <v>68.5</v>
+      </c>
+      <c r="E58" s="39">
+        <f>SUM(E56,E52,E39,E47,E28,E23,E17,E14,E11,E9,E5)</f>
         <v>14</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="37"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A5:G52">
-    <cfRule type="expression" dxfId="1" priority="20">
+  <conditionalFormatting sqref="A5:G57">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$F5="erledigt"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>$F5="in Arbeit"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="54" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
@@ -2124,13 +2336,13 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C54</xm:sqref>
+          <xm:sqref>C5:C59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F54</xm:sqref>
+          <xm:sqref>F5:F59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/TippspielWM2014/_doc/backlog/backlog.xlsx
+++ b/TippspielWM2014/_doc/backlog/backlog.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -664,117 +664,7 @@
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF5AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1FFB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF5AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1FFB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF5AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1FFB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF5AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1FFB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF5AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1FFB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -799,6 +689,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1126,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
@@ -1135,7 +1030,7 @@
     <col min="7" max="7" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1143,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="G1" s="13">
-        <v>41567</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1063,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1214,7 +1109,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:7" ht="14" outlineLevel="1">
       <c r="A6" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -1237,7 +1132,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:7" ht="14" outlineLevel="1">
       <c r="A7" s="9">
         <v>1.2</v>
       </c>
@@ -1260,7 +1155,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:7" ht="14" outlineLevel="1">
       <c r="A8" s="9">
         <v>1.3</v>
       </c>
@@ -1279,7 +1174,7 @@
       </c>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -1304,7 +1199,7 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:7" ht="14" outlineLevel="1">
       <c r="A10" s="9">
         <v>2.1</v>
       </c>
@@ -1327,7 +1222,7 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1343,14 +1238,14 @@
       </c>
       <c r="E11" s="38">
         <f>SUBTOTAL(9,E12:E13)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:7" ht="14" outlineLevel="1">
       <c r="A12" s="10">
         <v>3.1</v>
       </c>
@@ -1373,7 +1268,7 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:7" ht="14" outlineLevel="1">
       <c r="A13" s="10">
         <v>3.2</v>
       </c>
@@ -1387,14 +1282,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A14" s="19">
         <v>4</v>
       </c>
@@ -1410,14 +1305,16 @@
       </c>
       <c r="E14" s="38">
         <f>SUBTOTAL(9,E15:E16)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="26">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" outlineLevel="1">
       <c r="A15" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -1440,7 +1337,7 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:7" ht="14" outlineLevel="1">
       <c r="A16" s="10">
         <v>4.2</v>
       </c>
@@ -1453,13 +1350,17 @@
       <c r="D16" s="37">
         <v>2.5</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="37">
+        <v>2</v>
+      </c>
       <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" collapsed="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="25">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A17" s="15">
         <v>5</v>
       </c>
@@ -1475,14 +1376,16 @@
       </c>
       <c r="E17" s="38">
         <f>SUBTOTAL(9,E18:E22)</f>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" hidden="1" outlineLevel="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="26">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" outlineLevel="1">
       <c r="A18" s="10">
         <v>5.0999999999999996</v>
       </c>
@@ -1505,7 +1408,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:7" ht="14" outlineLevel="1">
       <c r="A19" s="9">
         <v>5.2</v>
       </c>
@@ -1528,7 +1431,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:7" ht="14" outlineLevel="1">
       <c r="A20" s="9">
         <v>5.3</v>
       </c>
@@ -1551,7 +1454,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:7" ht="14" outlineLevel="1">
       <c r="A21" s="9">
         <v>5.4</v>
       </c>
@@ -1564,13 +1467,17 @@
       <c r="D21" s="37">
         <v>1.5</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
       <c r="F21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" hidden="1" outlineLevel="1">
+        <v>9</v>
+      </c>
+      <c r="G21" s="25">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" outlineLevel="1">
       <c r="A22" s="9">
         <v>5.5</v>
       </c>
@@ -1583,13 +1490,17 @@
       <c r="D22" s="37">
         <v>3</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="37">
+        <v>3.5</v>
+      </c>
       <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" collapsed="1">
+        <v>9</v>
+      </c>
+      <c r="G22" s="25">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A23" s="15">
         <v>6</v>
       </c>
@@ -1608,11 +1519,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:7" ht="14" outlineLevel="1">
       <c r="A24" s="9">
         <v>6.1</v>
       </c>
@@ -1627,11 +1538,11 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:7" ht="14" outlineLevel="1">
       <c r="A25" s="9">
         <v>6.2</v>
       </c>
@@ -1650,7 +1561,7 @@
       </c>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:7" ht="14" outlineLevel="1">
       <c r="A26" s="9">
         <v>6.3</v>
       </c>
@@ -1669,7 +1580,7 @@
       </c>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:7" ht="14" outlineLevel="1">
       <c r="A27" s="9">
         <v>6.4</v>
       </c>
@@ -1688,7 +1599,7 @@
       </c>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A28" s="19">
         <v>7</v>
       </c>
@@ -1711,7 +1622,7 @@
       </c>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
       <c r="A29" s="9">
         <v>7.1</v>
       </c>
@@ -1730,7 +1641,7 @@
       </c>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
       <c r="A30" s="9">
         <v>7.2</v>
       </c>
@@ -1749,7 +1660,7 @@
       </c>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
       <c r="A31" s="9">
         <v>7.3</v>
       </c>
@@ -1768,7 +1679,7 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
       <c r="A32" s="9">
         <v>7.4</v>
       </c>
@@ -1787,7 +1698,7 @@
       </c>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A33" s="15">
         <v>8</v>
       </c>
@@ -1810,7 +1721,7 @@
       </c>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:7" ht="14" outlineLevel="1">
       <c r="A34" s="9">
         <v>8.1</v>
       </c>
@@ -1829,7 +1740,7 @@
       </c>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:7" ht="14" outlineLevel="1">
       <c r="A35" s="9">
         <v>8.1999999999999993</v>
       </c>
@@ -1848,7 +1759,7 @@
       </c>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:7" ht="14" outlineLevel="1">
       <c r="A36" s="9">
         <v>8.3000000000000007</v>
       </c>
@@ -1867,7 +1778,7 @@
       </c>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:7" ht="14" outlineLevel="1">
       <c r="A37" s="9">
         <v>8.4</v>
       </c>
@@ -1886,7 +1797,7 @@
       </c>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:7" ht="14" outlineLevel="1">
       <c r="A38" s="9">
         <v>8.5</v>
       </c>
@@ -1905,7 +1816,7 @@
       </c>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A39" s="15">
         <v>9</v>
       </c>
@@ -1928,7 +1839,7 @@
       </c>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:7" ht="14" outlineLevel="1">
       <c r="A40" s="9">
         <v>9.1</v>
       </c>
@@ -1947,7 +1858,7 @@
       </c>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:7" ht="14" outlineLevel="1">
       <c r="A41" s="9">
         <v>9.1999999999999993</v>
       </c>
@@ -1966,7 +1877,7 @@
       </c>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:7" ht="14" outlineLevel="1">
       <c r="A42" s="9">
         <v>9.3000000000000007</v>
       </c>
@@ -1985,7 +1896,7 @@
       </c>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:7" ht="14" outlineLevel="1">
       <c r="A43" s="9">
         <v>9.4</v>
       </c>
@@ -2004,7 +1915,7 @@
       </c>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:7" ht="14" outlineLevel="1">
       <c r="A44" s="9">
         <v>9.5</v>
       </c>
@@ -2023,7 +1934,7 @@
       </c>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:7" ht="14" outlineLevel="1">
       <c r="A45" s="9">
         <v>9.6</v>
       </c>
@@ -2042,7 +1953,7 @@
       </c>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:7" ht="14" outlineLevel="1">
       <c r="A46" s="9">
         <v>9.6999999999999993</v>
       </c>
@@ -2061,7 +1972,7 @@
       </c>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A47" s="15">
         <v>10</v>
       </c>
@@ -2084,7 +1995,7 @@
       </c>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:7" ht="14" outlineLevel="1">
       <c r="A48" s="9">
         <v>10.1</v>
       </c>
@@ -2103,7 +2014,7 @@
       </c>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:7" ht="14" outlineLevel="1">
       <c r="A49" s="9">
         <v>10.199999999999999</v>
       </c>
@@ -2122,7 +2033,7 @@
       </c>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:7" ht="14" outlineLevel="1">
       <c r="A50" s="9">
         <v>10.3</v>
       </c>
@@ -2141,7 +2052,7 @@
       </c>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:7" ht="14" outlineLevel="1">
       <c r="A51" s="9">
         <v>10.4</v>
       </c>
@@ -2160,7 +2071,7 @@
       </c>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A52" s="15">
         <v>11</v>
       </c>
@@ -2183,7 +2094,7 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:7" ht="14" outlineLevel="1">
       <c r="A53" s="9">
         <v>11.1</v>
       </c>
@@ -2202,7 +2113,7 @@
       </c>
       <c r="G53" s="25"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:7" ht="14" outlineLevel="1">
       <c r="A54" s="9">
         <v>11.2</v>
       </c>
@@ -2221,7 +2132,7 @@
       </c>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:7" ht="14" outlineLevel="1">
       <c r="A55" s="9">
         <v>11.3</v>
       </c>
@@ -2240,7 +2151,7 @@
       </c>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A56" s="15">
         <v>12</v>
       </c>
@@ -2263,7 +2174,7 @@
       </c>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:7" ht="14" outlineLevel="1">
       <c r="A57" s="9">
         <v>12.1</v>
       </c>
@@ -2282,7 +2193,7 @@
       </c>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" collapsed="1">
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="14">
       <c r="A58" s="28"/>
       <c r="B58" s="29" t="s">
         <v>31</v>
@@ -2294,7 +2205,7 @@
       </c>
       <c r="E58" s="39">
         <f>SUM(E56,E52,E39,E47,E28,E23,E17,E14,E11,E9,E5)</f>
-        <v>14</v>
+        <v>22.5</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="32"/>
@@ -2314,10 +2225,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A5:G57">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>$F5="erledigt"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>$F5="in Arbeit"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TippspielWM2014/_doc/backlog/backlog.xlsx
+++ b/TippspielWM2014/_doc/backlog/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Hauptstruktur mit HTML-Elementen aufbauen</t>
-  </si>
-  <si>
     <t>Name, URL, Logo festlegen</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Seite für Registierung aufbauen</t>
   </si>
   <si>
-    <t>Sicherheitsmechanismus einbauen (z.B. Captcha)</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -215,13 +209,34 @@
   </si>
   <si>
     <t>Form Validation</t>
+  </si>
+  <si>
+    <t>Nice-to-have</t>
+  </si>
+  <si>
+    <t>Registrierung: Passwortstärke grafisch anzeigen</t>
+  </si>
+  <si>
+    <t>Registrierung: Info-Icon + Tooltip für Beschreibung erwartete Eingabe</t>
+  </si>
+  <si>
+    <t>Passwort-Hashing</t>
+  </si>
+  <si>
+    <t>Hauptstruktur der Seite mit HTML-Elementen aufbauen</t>
+  </si>
+  <si>
+    <t>MVC-Pattern umsetzen</t>
+  </si>
+  <si>
+    <t>Sicherheitsmechanismus einbauen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +294,28 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -549,6 +586,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -577,7 +656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -630,6 +709,29 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,30 +740,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1019,18 +1121,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="73.875" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,10 +1141,10 @@
         <v>24</v>
       </c>
       <c r="G1" s="13">
-        <v>41571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1052,18 +1155,18 @@
       <c r="F2" s="4"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="4"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="14">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1105,11 +1208,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="14" outlineLevel="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="24">
+        <v>41547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -1132,7 +1237,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" outlineLevel="1">
+    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.2</v>
       </c>
@@ -1155,12 +1260,12 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" outlineLevel="1">
+    <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>5</v>
@@ -1168,13 +1273,17 @@
       <c r="D8" s="37">
         <v>0.5</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="37">
+        <v>0.5</v>
+      </c>
       <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="14">
+        <v>9</v>
+      </c>
+      <c r="G8" s="25">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -1185,12 +1294,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="38">
-        <f>SUBTOTAL(9,D10:D10)</f>
-        <v>1.5</v>
+        <f>SUBTOTAL(9,D10:D11)</f>
+        <v>6.5</v>
       </c>
       <c r="E9" s="38">
-        <f>SUBTOTAL(9,E10:E10)</f>
-        <v>1.5</v>
+        <f>SUBTOTAL(9,E10:E11)</f>
+        <v>13.5</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>9</v>
@@ -1199,12 +1308,12 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14" outlineLevel="1">
+    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2.1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>4</v>
@@ -1222,136 +1331,140 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="37">
+        <v>5</v>
+      </c>
+      <c r="E11" s="37">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="25">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="38">
-        <f>SUBTOTAL(9,D12:D13)</f>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="38">
+        <f>SUBTOTAL(9,D13:D14)</f>
         <v>6.5</v>
       </c>
-      <c r="E11" s="38">
-        <f>SUBTOTAL(9,E12:E13)</f>
+      <c r="E12" s="38">
+        <f>SUBTOTAL(9,E13:E14)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A12" s="10">
+      <c r="F12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>3.1</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="25">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="37">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="25">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="38">
+        <f>SUBTOTAL(9,D16:D17)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="38">
+        <f>SUBTOTAL(9,E16:E17)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26">
         <v>41555</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A13" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="B13" s="14" t="s">
+    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="37">
-        <v>5</v>
-      </c>
-      <c r="E13" s="37">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A14" s="19">
-        <v>4</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="38">
-        <f>SUBTOTAL(9,D15:D16)</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="38">
-        <f>SUBTOTAL(9,E15:E16)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="26">
-        <v>41555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A15" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="37">
         <v>0.5</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E16" s="37">
         <v>0.5</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="25">
-        <v>41555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A16" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="E16" s="37">
-        <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>9</v>
@@ -1360,69 +1473,69 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A17" s="15">
+    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="37">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="25">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="38">
-        <f>SUBTOTAL(9,D18:D22)</f>
+      <c r="C18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="38">
+        <f>SUBTOTAL(9,D19:D23)</f>
         <v>10</v>
       </c>
-      <c r="E17" s="38">
-        <f>SUBTOTAL(9,E18:E22)</f>
-        <v>11.5</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="E18" s="38">
+        <f>SUBTOTAL(9,E19:E23)</f>
+        <v>15</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="26">
         <v>41571</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A18" s="10">
+    <row r="19" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="37">
         <v>0.5</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E19" s="37">
         <v>0.5</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="25">
-        <v>41559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A19" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="E19" s="37">
-        <v>3</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>9</v>
@@ -1431,12 +1544,12 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" outlineLevel="1">
+    <row r="20" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>4</v>
@@ -1445,189 +1558,207 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="37">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="25">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="37">
+        <v>5</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="25">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="25">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="37">
+        <v>3</v>
+      </c>
+      <c r="E23" s="37">
         <v>3.5</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="25">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A21" s="9">
-        <v>5.4</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="37">
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="25">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>6</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="38">
+        <f>SUBTOTAL(9,D25:D29)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E24" s="38">
+        <f>SUBTOTAL(9,E25:E29)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="26">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="37">
         <v>1.5</v>
       </c>
-      <c r="E21" s="37">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="25">
-        <v>41567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A22" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="37">
+      <c r="E25" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="25">
+        <v>41574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="37">
         <v>3</v>
       </c>
-      <c r="E22" s="37">
-        <v>3.5</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="25">
-        <v>41571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A23" s="15">
-        <v>6</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="38">
-        <f>SUBTOTAL(9,D24:D27)</f>
-        <v>6</v>
-      </c>
-      <c r="E23" s="38">
-        <f>SUBTOTAL(9,E24:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A24" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="37">
+      <c r="E26" s="37">
         <v>1.5</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A25" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="37">
-        <v>3</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A26" s="9">
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="25">
+        <v>41578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>6.3</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="37">
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="37">
         <v>0.5</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A27" s="9">
+      <c r="E27" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="25">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>6.4</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="37">
-        <v>1</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A28" s="19">
-        <v>7</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="38">
-        <f>SUBTOTAL(9,D29:D32)</f>
-        <v>6</v>
-      </c>
-      <c r="E28" s="38">
-        <f>SUBTOTAL(9,E29:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
+      <c r="B28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="25">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>4</v>
@@ -1635,98 +1766,116 @@
       <c r="D29" s="37">
         <v>1</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="37">
+        <v>2.5</v>
+      </c>
       <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="25">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>7</v>
       </c>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
-      <c r="A30" s="9">
+      <c r="B30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="38">
+        <f>SUBTOTAL(9,D31:D34)</f>
+        <v>6</v>
+      </c>
+      <c r="E30" s="38">
+        <f>SUBTOTAL(9,E31:E34)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="26">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="37">
+        <v>1</v>
+      </c>
+      <c r="E31" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="25">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>7.2</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="37">
+      <c r="B32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="37">
         <v>0.5</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
-      <c r="A31" s="9">
+      <c r="E32" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="25">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>7.3</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="37">
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="37">
         <v>3.5</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="14" outlineLevel="1">
-      <c r="A32" s="9">
+      <c r="E33" s="37">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="25">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>7.4</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="37">
-        <v>1</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A33" s="15">
-        <v>8</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="38">
-        <f>SUBTOTAL(9,D34:D38)</f>
-        <v>13.5</v>
-      </c>
-      <c r="E33" s="38">
-        <f>SUBTOTAL(9,E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A34" s="9">
-        <v>8.1</v>
-      </c>
       <c r="B34" s="14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>4</v>
@@ -1734,212 +1883,256 @@
       <c r="D34" s="37">
         <v>1</v>
       </c>
-      <c r="E34" s="37"/>
+      <c r="E34" s="37">
+        <v>0.5</v>
+      </c>
       <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A35" s="9">
+        <v>9</v>
+      </c>
+      <c r="G34" s="25">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>8</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="38">
+        <f>SUBTOTAL(9,D36:D40)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E35" s="38">
+        <f>SUBTOTAL(9,E36:E40)</f>
+        <v>16</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="26">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1</v>
+      </c>
+      <c r="E36" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="25">
+        <v>41583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="37">
+      <c r="B37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="37">
         <v>2.5</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A36" s="9">
+      <c r="E37" s="37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="25">
+        <v>41583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="37">
+      <c r="B38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="37">
         <v>8</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A37" s="9">
+      <c r="E38" s="37">
+        <v>10</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="25">
+        <v>41587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>8.4</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="37">
+      <c r="B39" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="37">
         <v>1</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A38" s="9">
+      <c r="E39" s="37">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="25">
+        <v>41588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>8.5</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="37">
+      <c r="B40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="37">
         <v>1</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A39" s="15">
-        <v>9</v>
-      </c>
-      <c r="B39" s="20" t="s">
+      <c r="E40" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="25">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>9</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="38">
-        <f>SUBTOTAL(9,D40:D46)</f>
+      <c r="C41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="38">
+        <f>SUBTOTAL(9,D42:D48)</f>
         <v>17</v>
       </c>
-      <c r="E39" s="38">
-        <f>SUBTOTAL(9,E40:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A40" s="9">
+      <c r="E41" s="38">
+        <f>SUBTOTAL(9,E42:E48)</f>
+        <v>12</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="26">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>9.1</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="37">
+        <v>3</v>
+      </c>
+      <c r="E42" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="25">
+        <v>41601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="37">
+        <v>6</v>
+      </c>
+      <c r="E43" s="37">
+        <v>4</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="25">
+        <v>41601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="37">
-        <v>3</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A41" s="9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B41" s="14" t="s">
+      <c r="C44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="37">
+        <v>1</v>
+      </c>
+      <c r="E44" s="37">
+        <v>2</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="25">
+        <v>41602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="37">
-        <v>6</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A42" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="37">
-        <v>1</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A43" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="37">
-        <v>2</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A44" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="37">
-        <v>2</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A45" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>5</v>
@@ -1947,284 +2140,442 @@
       <c r="D45" s="37">
         <v>2</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="37">
+        <v>2</v>
+      </c>
       <c r="F45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="25">
+        <v>41602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="37">
+        <v>2</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="25">
+        <v>41602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="37">
+        <v>2</v>
+      </c>
+      <c r="E47" s="37">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="25">
+        <v>41604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="37">
+        <v>1</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="25">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>10</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="38">
+        <f>SUBTOTAL(9,D50:D53)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E49" s="38">
+        <f>SUBTOTAL(9,E50:E53)</f>
+        <v>13.5</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="26">
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="25">
+        <v>41615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="37">
+        <v>3</v>
+      </c>
+      <c r="E51" s="37">
+        <v>5</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="25">
+        <v>41615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="37">
+        <v>5</v>
+      </c>
+      <c r="E52" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="25">
+        <v>41618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="37">
+        <v>2</v>
+      </c>
+      <c r="E53" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="25">
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>11</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="38">
+        <f>SUBTOTAL(9,D55:D57)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="38">
+        <f>SUBTOTAL(9,E55:E57)</f>
+        <v>4</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="26">
+        <v>41646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="25">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="37">
+        <v>2</v>
+      </c>
+      <c r="E56" s="37">
+        <v>2</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="25">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="37">
+        <v>1</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="25">
+        <v>41646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>12</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="38">
+        <f>SUBTOTAL(9,D59:D59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="38">
+        <f>SUBTOTAL(9,E59:E59)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="26">
+        <v>41651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="37">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="25">
+        <v>41651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46">
+        <v>13</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="38">
+        <f>SUBTOTAL(9,D61:D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="38">
+        <f>SUBTOTAL(9,E61:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A46" s="9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>13.1</v>
+      </c>
+      <c r="B61" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="37">
-        <v>1</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="12" t="s">
+      <c r="C61" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A47" s="15">
-        <v>10</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="38">
-        <f>SUBTOTAL(9,D48:D51)</f>
-        <v>11.5</v>
-      </c>
-      <c r="E47" s="38">
-        <f>SUBTOTAL(9,E48:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="22" t="s">
+      <c r="G61" s="45"/>
+    </row>
+    <row r="62" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>13.2</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A48" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A49" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="37">
-        <v>3</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A50" s="9">
-        <v>10.3</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="37">
-        <v>5</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A51" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="37">
-        <v>2</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A52" s="15">
-        <v>11</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="38">
-        <f>SUBTOTAL(9,D53:D55)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="38">
-        <f>SUBTOTAL(9,E53:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A53" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A54" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="37">
-        <v>2</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A55" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="37">
-        <v>1</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A56" s="15">
-        <v>12</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="38">
-        <f>SUBTOTAL(9,D57:D57)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E56" s="38">
-        <f>SUBTOTAL(9,E57:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" ht="14" outlineLevel="1">
-      <c r="A57" s="9">
-        <v>12.1</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="25"/>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="14">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29" t="s">
+      <c r="G62" s="45"/>
+    </row>
+    <row r="63" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="39">
-        <f>SUM(D56,D52,D39,D47,D28,D23,D17,D14,D11,D9,D5)</f>
-        <v>68.5</v>
-      </c>
-      <c r="E58" s="39">
-        <f>SUM(E56,E52,E39,E47,E28,E23,E17,E14,E11,E9,E5)</f>
-        <v>22.5</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="35"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="39">
+        <f>SUM(D58,D54,D41,D49,D30,D24,D18,D15,D12,D9,D5)</f>
+        <v>75</v>
+      </c>
+      <c r="E64" s="39">
+        <f>SUM(E58,E54,E41,E49,E30,E24,E18,E15,E12,E9,E5)</f>
+        <v>80.5</v>
+      </c>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A5:G57">
+  <conditionalFormatting sqref="A5:G63">
     <cfRule type="expression" dxfId="1" priority="20">
       <formula>$F5="erledigt"</formula>
     </cfRule>
@@ -2233,9 +2584,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="59" max="16383" man="1"/>
+    <brk id="65" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
@@ -2247,13 +2598,13 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C59</xm:sqref>
+          <xm:sqref>C5:C65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F59</xm:sqref>
+          <xm:sqref>F5:F65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2272,9 +2623,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
